--- a/PolicyEffectiveness/0-DayLag_New YorkPolicy.xlsx
+++ b/PolicyEffectiveness/0-DayLag_New YorkPolicy.xlsx
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2249,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2261,13 +2261,13 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2373,13 +2373,13 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2429,13 +2429,13 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2473,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2541,13 +2541,13 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2597,13 +2597,13 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2697,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2709,13 +2709,13 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2753,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2765,13 +2765,13 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2809,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2821,13 +2821,13 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2877,13 +2877,13 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3033,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3045,13 +3045,13 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3089,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3101,13 +3101,13 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3157,13 +3157,13 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3213,13 +3213,13 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3257,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -3369,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3381,13 +3381,13 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -3425,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3437,13 +3437,13 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -3537,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3549,13 +3549,13 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3605,13 +3605,13 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -3705,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3773,13 +3773,13 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3829,13 +3829,13 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -3873,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3885,13 +3885,13 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -3929,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3941,13 +3941,13 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -3985,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3997,13 +3997,13 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -4041,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4053,13 +4053,13 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -4097,7 +4097,7 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -4109,13 +4109,13 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4165,13 +4165,13 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -4221,13 +4221,13 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4277,13 +4277,13 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4333,13 +4333,13 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -4377,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -4389,13 +4389,13 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4445,13 +4445,13 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -4489,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4501,13 +4501,13 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4557,13 +4557,13 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -4601,7 +4601,7 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4613,13 +4613,13 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4669,13 +4669,13 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -4713,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4725,13 +4725,13 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -4769,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4781,13 +4781,13 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -4825,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4837,13 +4837,13 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4893,13 +4893,13 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -4937,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4949,13 +4949,13 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -5005,13 +5005,13 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -5049,7 +5049,7 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -5061,13 +5061,13 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -5117,13 +5117,13 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -5173,13 +5173,13 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5229,13 +5229,13 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -5273,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5285,13 +5285,13 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5341,13 +5341,13 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5397,13 +5397,13 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -5441,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5453,13 +5453,13 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5509,13 +5509,13 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5565,13 +5565,13 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5621,13 +5621,13 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -5665,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5677,13 +5677,13 @@
         <v>1</v>
       </c>
       <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
         <v>0.625</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0.5</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5733,13 +5733,13 @@
         <v>1</v>
       </c>
       <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
         <v>0.625</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0.5</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -5777,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5789,13 +5789,13 @@
         <v>1</v>
       </c>
       <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
         <v>0.625</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>0.5</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -5833,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5845,13 +5845,13 @@
         <v>1</v>
       </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
         <v>0.625</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0.5</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -5889,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5901,13 +5901,13 @@
         <v>1</v>
       </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
         <v>0.625</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0.5</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -5945,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5957,13 +5957,13 @@
         <v>1</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
         <v>0.625</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0.5</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -6001,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -6013,13 +6013,13 @@
         <v>1</v>
       </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
         <v>0.625</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0.5</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -6069,13 +6069,13 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -6113,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -6125,13 +6125,13 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -6181,13 +6181,13 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -6225,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -6237,13 +6237,13 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -6281,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -6293,13 +6293,13 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -6337,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6349,13 +6349,13 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -6393,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6405,13 +6405,13 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6461,13 +6461,13 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -6505,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -6517,13 +6517,13 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -6561,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -6573,13 +6573,13 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -6617,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -6629,13 +6629,13 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -6673,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -6685,13 +6685,13 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -6729,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -6741,13 +6741,13 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -6797,13 +6797,13 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -6841,7 +6841,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="D106">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -6853,13 +6853,13 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K106">
         <v>1</v>
@@ -6897,7 +6897,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="D107">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -6909,13 +6909,13 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -6953,7 +6953,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="D108">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -6965,13 +6965,13 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -7009,7 +7009,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="D109">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -7021,13 +7021,13 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -7065,7 +7065,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="D110">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -7077,13 +7077,13 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -7121,7 +7121,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="D111">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -7133,13 +7133,13 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -7177,7 +7177,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="D112">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -7189,13 +7189,13 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K112">
         <v>1</v>
@@ -7233,7 +7233,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="D113">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -7245,13 +7245,13 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -7289,7 +7289,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="D114">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -7301,13 +7301,13 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K114">
         <v>1</v>
@@ -7345,7 +7345,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="D115">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -7357,13 +7357,13 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K115">
         <v>1</v>
@@ -7401,7 +7401,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -7413,13 +7413,13 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K116">
         <v>1</v>
@@ -7457,7 +7457,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -7469,13 +7469,13 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K117">
         <v>1</v>
@@ -7513,7 +7513,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -7525,13 +7525,13 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K118">
         <v>1</v>
@@ -7569,7 +7569,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -7581,13 +7581,13 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K119">
         <v>1</v>
@@ -7625,7 +7625,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K120">
         <v>1</v>
@@ -7681,7 +7681,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -7699,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K121">
         <v>1</v>
@@ -7737,7 +7737,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K122">
         <v>1</v>
@@ -7793,7 +7793,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K123">
         <v>1</v>
@@ -7849,7 +7849,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K124">
         <v>1</v>
@@ -7905,7 +7905,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K125">
         <v>1</v>
@@ -7961,7 +7961,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K126">
         <v>1</v>
@@ -8017,7 +8017,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K127">
         <v>1</v>
@@ -8073,7 +8073,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K128">
         <v>1</v>
@@ -8129,7 +8129,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K129">
         <v>1</v>
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -8203,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K130">
         <v>1</v>
@@ -8241,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K131">
         <v>1</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K132">
         <v>1</v>
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K133">
         <v>1</v>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K134">
         <v>1</v>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K135">
         <v>1</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K136">
         <v>1</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K137">
         <v>1</v>
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K138">
         <v>1</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K139">
         <v>1</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K140">
         <v>1</v>
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K141">
         <v>1</v>
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K142">
         <v>1</v>
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K143">
         <v>1</v>
